--- a/working_data/function_6_data.xlsx
+++ b/working_data/function_6_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>X_1</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1508,6 +1508,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.090909</v>
+      </c>
+      <c r="F49">
+        <v>-2.203442372573805</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.272727</v>
+      </c>
+      <c r="F50">
+        <v>-2.382709596165335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_6_data.xlsx
+++ b/working_data/function_6_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>X_1</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1554,6 +1554,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.363636</v>
+      </c>
+      <c r="F51">
+        <v>-2.446380104769124</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_6_data.xlsx
+++ b/working_data/function_6_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
   <si>
     <t>X_1</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1577,6 +1577,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>0.628186</v>
+      </c>
+      <c r="B52">
+        <v>0.054693</v>
+      </c>
+      <c r="C52">
+        <v>0.632552</v>
+      </c>
+      <c r="D52">
+        <v>0.593997</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>-0.840975198825381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_6_data.xlsx
+++ b/working_data/function_6_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>X_1</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,6 +1600,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>0.678186</v>
+      </c>
+      <c r="B53">
+        <v>0.104693</v>
+      </c>
+      <c r="C53">
+        <v>0.682552</v>
+      </c>
+      <c r="D53">
+        <v>0.643997</v>
+      </c>
+      <c r="E53">
+        <v>0.006401</v>
+      </c>
+      <c r="F53">
+        <v>-0.6698712159759013</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
